--- a/Code/Results/Cases/Case_7_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_60/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035168786458735</v>
+        <v>1.035168786458734</v>
       </c>
       <c r="D2">
-        <v>1.051148304889746</v>
+        <v>1.051148304889745</v>
       </c>
       <c r="E2">
-        <v>1.044433840102237</v>
+        <v>1.044433840102236</v>
       </c>
       <c r="F2">
-        <v>1.055087674947054</v>
+        <v>1.055087674947053</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062486001804844</v>
+        <v>1.062486001804843</v>
       </c>
       <c r="J2">
-        <v>1.05634618089421</v>
+        <v>1.056346180894208</v>
       </c>
       <c r="K2">
-        <v>1.06193824815353</v>
+        <v>1.061938248153529</v>
       </c>
       <c r="L2">
-        <v>1.055306995917617</v>
+        <v>1.055306995917616</v>
       </c>
       <c r="M2">
-        <v>1.06582941025618</v>
+        <v>1.065829410256179</v>
       </c>
       <c r="N2">
-        <v>1.05784631363568</v>
+        <v>1.057846313635678</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044645345767908</v>
+        <v>1.04464534576791</v>
       </c>
       <c r="D3">
-        <v>1.058771422994922</v>
+        <v>1.058771422994923</v>
       </c>
       <c r="E3">
-        <v>1.05277020320637</v>
+        <v>1.052770203206371</v>
       </c>
       <c r="F3">
-        <v>1.063596969078022</v>
+        <v>1.063596969078023</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065881133241396</v>
+        <v>1.065881133241397</v>
       </c>
       <c r="J3">
-        <v>1.063988742161602</v>
+        <v>1.063988742161603</v>
       </c>
       <c r="K3">
-        <v>1.068703732849793</v>
+        <v>1.068703732849794</v>
       </c>
       <c r="L3">
-        <v>1.062769629168356</v>
+        <v>1.062769629168358</v>
       </c>
       <c r="M3">
-        <v>1.073475986244167</v>
+        <v>1.073475986244168</v>
       </c>
       <c r="N3">
-        <v>1.065499728216686</v>
+        <v>1.065499728216688</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050558325396448</v>
+        <v>1.050558325396449</v>
       </c>
       <c r="D4">
-        <v>1.063529667821747</v>
+        <v>1.063529667821748</v>
       </c>
       <c r="E4">
-        <v>1.057973544009867</v>
+        <v>1.057973544009868</v>
       </c>
       <c r="F4">
-        <v>1.068911136850011</v>
+        <v>1.068911136850012</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.067983237950092</v>
       </c>
       <c r="J4">
-        <v>1.068751566266985</v>
+        <v>1.068751566266986</v>
       </c>
       <c r="K4">
-        <v>1.072917355056879</v>
+        <v>1.07291735505688</v>
       </c>
       <c r="L4">
-        <v>1.067419223590179</v>
+        <v>1.06741922359018</v>
       </c>
       <c r="M4">
-        <v>1.078243355477669</v>
+        <v>1.07824335547767</v>
       </c>
       <c r="N4">
-        <v>1.070269316078603</v>
+        <v>1.070269316078604</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052995298147356</v>
+        <v>1.052995298147354</v>
       </c>
       <c r="D5">
-        <v>1.065491009889959</v>
+        <v>1.065491009889958</v>
       </c>
       <c r="E5">
-        <v>1.06011837903414</v>
+        <v>1.060118379034138</v>
       </c>
       <c r="F5">
-        <v>1.071102331627735</v>
+        <v>1.071102331627734</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068845610865425</v>
+        <v>1.068845610865424</v>
       </c>
       <c r="J5">
-        <v>1.070713046384586</v>
+        <v>1.070713046384585</v>
       </c>
       <c r="K5">
-        <v>1.074651998564218</v>
+        <v>1.074651998564217</v>
       </c>
       <c r="L5">
-        <v>1.069333802378106</v>
+        <v>1.069333802378104</v>
       </c>
       <c r="M5">
-        <v>1.080207175769166</v>
+        <v>1.080207175769164</v>
       </c>
       <c r="N5">
-        <v>1.072233581722955</v>
+        <v>1.072233581722954</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053401709533346</v>
+        <v>1.053401709533348</v>
       </c>
       <c r="D6">
-        <v>1.065818113675275</v>
+        <v>1.065818113675276</v>
       </c>
       <c r="E6">
-        <v>1.060476087791731</v>
+        <v>1.060476087791733</v>
       </c>
       <c r="F6">
-        <v>1.071467811460981</v>
+        <v>1.071467811460983</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068989191277095</v>
+        <v>1.068989191277096</v>
       </c>
       <c r="J6">
-        <v>1.071040072010093</v>
+        <v>1.071040072010095</v>
       </c>
       <c r="K6">
-        <v>1.074941165498349</v>
+        <v>1.074941165498351</v>
       </c>
       <c r="L6">
-        <v>1.069652992396487</v>
+        <v>1.069652992396489</v>
       </c>
       <c r="M6">
-        <v>1.080534618518016</v>
+        <v>1.080534618518018</v>
       </c>
       <c r="N6">
-        <v>1.07256107176236</v>
+        <v>1.072561071762363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -635,7 +635,7 @@
         <v>1.058002367201437</v>
       </c>
       <c r="F7">
-        <v>1.068940580383478</v>
+        <v>1.068940580383477</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -644,16 +644,16 @@
         <v>1.067994843253496</v>
       </c>
       <c r="J7">
-        <v>1.068777932459499</v>
+        <v>1.068777932459498</v>
       </c>
       <c r="K7">
-        <v>1.072940674763626</v>
+        <v>1.072940674763625</v>
       </c>
       <c r="L7">
-        <v>1.067444960412494</v>
+        <v>1.067444960412493</v>
       </c>
       <c r="M7">
-        <v>1.07826975129754</v>
+        <v>1.078269751297539</v>
       </c>
       <c r="N7">
         <v>1.070295719714133</v>
@@ -691,7 +691,7 @@
         <v>1.064260258752078</v>
       </c>
       <c r="L8">
-        <v>1.057867918613807</v>
+        <v>1.057867918613806</v>
       </c>
       <c r="M8">
         <v>1.068452773444495</v>
@@ -711,13 +711,13 @@
         <v>1.015108765309754</v>
       </c>
       <c r="D9">
-        <v>1.035028585504385</v>
+        <v>1.035028585504384</v>
       </c>
       <c r="E9">
         <v>1.026802817656369</v>
       </c>
       <c r="F9">
-        <v>1.037108174754839</v>
+        <v>1.037108174754838</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>1.055209998726677</v>
       </c>
       <c r="J9">
-        <v>1.040139047819685</v>
+        <v>1.040139047819684</v>
       </c>
       <c r="K9">
         <v>1.047577809260698</v>
@@ -735,10 +735,10 @@
         <v>1.039475506136864</v>
       </c>
       <c r="M9">
-        <v>1.049626579003486</v>
+        <v>1.049626579003485</v>
       </c>
       <c r="N9">
-        <v>1.041616164573205</v>
+        <v>1.041616164573204</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9980132163948947</v>
+        <v>0.9980132163948928</v>
       </c>
       <c r="D10">
-        <v>1.021316294666313</v>
+        <v>1.021316294666311</v>
       </c>
       <c r="E10">
-        <v>1.011798718578984</v>
+        <v>1.011798718578983</v>
       </c>
       <c r="F10">
-        <v>1.021824260145303</v>
+        <v>1.021824260145302</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048933754691927</v>
+        <v>1.048933754691926</v>
       </c>
       <c r="J10">
-        <v>1.026305883355816</v>
+        <v>1.026305883355814</v>
       </c>
       <c r="K10">
-        <v>1.035311055116367</v>
+        <v>1.035311055116366</v>
       </c>
       <c r="L10">
-        <v>1.02595816187013</v>
+        <v>1.025958161870129</v>
       </c>
       <c r="M10">
-        <v>1.035810342653709</v>
+        <v>1.035810342653707</v>
       </c>
       <c r="N10">
-        <v>1.027763355429111</v>
+        <v>1.02776335542911</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,10 +790,10 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9901567329190689</v>
+        <v>0.9901567329190685</v>
       </c>
       <c r="D11">
-        <v>1.015024353910762</v>
+        <v>1.015024353910761</v>
       </c>
       <c r="E11">
         <v>1.004911364924815</v>
@@ -808,19 +808,19 @@
         <v>1.046031167255159</v>
       </c>
       <c r="J11">
-        <v>1.01994481508385</v>
+        <v>1.019944815083849</v>
       </c>
       <c r="K11">
-        <v>1.029668388043607</v>
+        <v>1.029668388043606</v>
       </c>
       <c r="L11">
-        <v>1.019741250670865</v>
+        <v>1.019741250670864</v>
       </c>
       <c r="M11">
-        <v>1.029461065271195</v>
+        <v>1.029461065271194</v>
       </c>
       <c r="N11">
-        <v>1.021393253710575</v>
+        <v>1.021393253710574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9871613643053733</v>
+        <v>0.9871613643053723</v>
       </c>
       <c r="D12">
-        <v>1.012627282006546</v>
+        <v>1.012627282006545</v>
       </c>
       <c r="E12">
-        <v>1.002286946316719</v>
+        <v>1.002286946316718</v>
       </c>
       <c r="F12">
-        <v>1.012142391386892</v>
+        <v>1.012142391386891</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.044921947893173</v>
       </c>
       <c r="J12">
-        <v>1.017519195384058</v>
+        <v>1.017519195384057</v>
       </c>
       <c r="K12">
-        <v>1.027516496850861</v>
+        <v>1.02751649685086</v>
       </c>
       <c r="L12">
-        <v>1.017370462810953</v>
+        <v>1.017370462810952</v>
       </c>
       <c r="M12">
-        <v>1.027040601934457</v>
+        <v>1.027040601934456</v>
       </c>
       <c r="N12">
-        <v>1.018964189352586</v>
+        <v>1.018964189352585</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9878075325763468</v>
+        <v>0.9878075325763492</v>
       </c>
       <c r="D13">
-        <v>1.013144297197582</v>
+        <v>1.013144297197585</v>
       </c>
       <c r="E13">
-        <v>1.002853021919104</v>
+        <v>1.002853021919107</v>
       </c>
       <c r="F13">
-        <v>1.012718438717755</v>
+        <v>1.012718438717758</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045161344618173</v>
+        <v>1.045161344618175</v>
       </c>
       <c r="J13">
-        <v>1.018042470473298</v>
+        <v>1.018042470473301</v>
       </c>
       <c r="K13">
-        <v>1.027980729320898</v>
+        <v>1.027980729320901</v>
       </c>
       <c r="L13">
-        <v>1.017881914944527</v>
+        <v>1.017881914944529</v>
       </c>
       <c r="M13">
-        <v>1.027562733849148</v>
+        <v>1.02756273384915</v>
       </c>
       <c r="N13">
-        <v>1.019488207552474</v>
+        <v>1.019488207552477</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9899107656396104</v>
+        <v>0.9899107656396131</v>
       </c>
       <c r="D14">
-        <v>1.014827477783949</v>
+        <v>1.014827477783951</v>
       </c>
       <c r="E14">
-        <v>1.004695827361993</v>
+        <v>1.004695827361995</v>
       </c>
       <c r="F14">
-        <v>1.014593837078527</v>
+        <v>1.014593837078529</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045940133822208</v>
+        <v>1.045940133822209</v>
       </c>
       <c r="J14">
-        <v>1.019745640024599</v>
+        <v>1.019745640024602</v>
       </c>
       <c r="K14">
-        <v>1.029491693555445</v>
+        <v>1.029491693555447</v>
       </c>
       <c r="L14">
-        <v>1.019546580677178</v>
+        <v>1.01954658067718</v>
       </c>
       <c r="M14">
-        <v>1.029262299893466</v>
+        <v>1.029262299893468</v>
       </c>
       <c r="N14">
-        <v>1.021193795799894</v>
+        <v>1.021193795799896</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.991196122450076</v>
+        <v>0.9911961224500799</v>
       </c>
       <c r="D15">
-        <v>1.015856372829175</v>
+        <v>1.015856372829178</v>
       </c>
       <c r="E15">
-        <v>1.0058222276771</v>
+        <v>1.005822227677103</v>
       </c>
       <c r="F15">
-        <v>1.015740258800086</v>
+        <v>1.01574025880009</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046415745957844</v>
+        <v>1.046415745957845</v>
       </c>
       <c r="J15">
-        <v>1.02078645887491</v>
+        <v>1.020786458874914</v>
       </c>
       <c r="K15">
-        <v>1.030415028615619</v>
+        <v>1.030415028615622</v>
       </c>
       <c r="L15">
-        <v>1.020563852171858</v>
+        <v>1.020563852171861</v>
       </c>
       <c r="M15">
-        <v>1.030301005011323</v>
+        <v>1.030301005011326</v>
       </c>
       <c r="N15">
-        <v>1.022236092732356</v>
+        <v>1.022236092732359</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9985243364041764</v>
+        <v>0.9985243364041795</v>
       </c>
       <c r="D16">
-        <v>1.02172585687935</v>
+        <v>1.021725856879352</v>
       </c>
       <c r="E16">
-        <v>1.012246974537877</v>
+        <v>1.012246974537879</v>
       </c>
       <c r="F16">
-        <v>1.022280667807484</v>
+        <v>1.022280667807487</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049122226560179</v>
+        <v>1.04912222656018</v>
       </c>
       <c r="J16">
-        <v>1.026719651462678</v>
+        <v>1.026719651462681</v>
       </c>
       <c r="K16">
-        <v>1.035678060074688</v>
+        <v>1.03567806007469</v>
       </c>
       <c r="L16">
-        <v>1.026362532744042</v>
+        <v>1.026362532744045</v>
       </c>
       <c r="M16">
-        <v>1.036223430797792</v>
+        <v>1.036223430797795</v>
       </c>
       <c r="N16">
-        <v>1.028177711134145</v>
+        <v>1.028177711134148</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1042,7 +1042,7 @@
         <v>1.025308366881913</v>
       </c>
       <c r="E17">
-        <v>1.016167635779314</v>
+        <v>1.016167635779313</v>
       </c>
       <c r="F17">
         <v>1.026273162013577</v>
@@ -1051,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050768279955203</v>
+        <v>1.050768279955202</v>
       </c>
       <c r="J17">
         <v>1.030337404689163</v>
       </c>
       <c r="K17">
-        <v>1.038886737794055</v>
+        <v>1.038886737794054</v>
       </c>
       <c r="L17">
         <v>1.029898004275189</v>
@@ -1066,7 +1066,7 @@
         <v>1.039835692858321</v>
       </c>
       <c r="N17">
-        <v>1.031800601985174</v>
+        <v>1.031800601985173</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00555762241413</v>
+        <v>1.005557622414127</v>
       </c>
       <c r="D18">
-        <v>1.027364299603858</v>
+        <v>1.027364299603855</v>
       </c>
       <c r="E18">
-        <v>1.018417386692811</v>
+        <v>1.018417386692809</v>
       </c>
       <c r="F18">
-        <v>1.028564570722222</v>
+        <v>1.028564570722219</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051710802379228</v>
+        <v>1.051710802379227</v>
       </c>
       <c r="J18">
-        <v>1.032412301255281</v>
+        <v>1.032412301255279</v>
       </c>
       <c r="K18">
-        <v>1.040726834757765</v>
+        <v>1.040726834757762</v>
       </c>
       <c r="L18">
-        <v>1.031925608439125</v>
+        <v>1.031925608439122</v>
       </c>
       <c r="M18">
-        <v>1.041907808646554</v>
+        <v>1.041907808646551</v>
       </c>
       <c r="N18">
-        <v>1.033878445142411</v>
+        <v>1.033878445142407</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006424753457461</v>
+        <v>1.006424753457463</v>
       </c>
       <c r="D19">
-        <v>1.028059790629157</v>
+        <v>1.028059790629158</v>
       </c>
       <c r="E19">
-        <v>1.019178405709885</v>
+        <v>1.019178405709887</v>
       </c>
       <c r="F19">
-        <v>1.029339754654932</v>
+        <v>1.029339754654934</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,19 +1136,19 @@
         <v>1.052029284466913</v>
       </c>
       <c r="J19">
-        <v>1.033113997740677</v>
+        <v>1.033113997740678</v>
       </c>
       <c r="K19">
-        <v>1.041349093055467</v>
+        <v>1.041349093055469</v>
       </c>
       <c r="L19">
-        <v>1.032611293654096</v>
+        <v>1.032611293654098</v>
       </c>
       <c r="M19">
-        <v>1.042608625687039</v>
+        <v>1.042608625687041</v>
       </c>
       <c r="N19">
-        <v>1.0345811381173</v>
+        <v>1.034581138117302</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002518778851474</v>
+        <v>1.002518778851479</v>
       </c>
       <c r="D20">
-        <v>1.024927526296818</v>
+        <v>1.024927526296822</v>
       </c>
       <c r="E20">
-        <v>1.015750873574415</v>
+        <v>1.015750873574418</v>
       </c>
       <c r="F20">
-        <v>1.025848718139458</v>
+        <v>1.025848718139462</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050593515546392</v>
+        <v>1.050593515546394</v>
       </c>
       <c r="J20">
-        <v>1.02995294989888</v>
+        <v>1.029952949898883</v>
       </c>
       <c r="K20">
-        <v>1.038545773481405</v>
+        <v>1.038545773481408</v>
       </c>
       <c r="L20">
-        <v>1.029522303871913</v>
+        <v>1.029522303871917</v>
       </c>
       <c r="M20">
-        <v>1.039451782858877</v>
+        <v>1.039451782858881</v>
       </c>
       <c r="N20">
-        <v>1.03141560122499</v>
+        <v>1.031415601224994</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9892936248996536</v>
+        <v>0.9892936248996544</v>
       </c>
       <c r="D21">
-        <v>1.014333538608226</v>
+        <v>1.014333538608227</v>
       </c>
       <c r="E21">
-        <v>1.00415506025211</v>
+        <v>1.004155060252111</v>
       </c>
       <c r="F21">
-        <v>1.014043484819242</v>
+        <v>1.014043484819243</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045711686927545</v>
+        <v>1.045711686927546</v>
       </c>
       <c r="J21">
-        <v>1.019245897006593</v>
+        <v>1.019245897006594</v>
       </c>
       <c r="K21">
         <v>1.029048352558253</v>
       </c>
       <c r="L21">
-        <v>1.019058139020126</v>
+        <v>1.019058139020127</v>
       </c>
       <c r="M21">
-        <v>1.028763595603581</v>
+        <v>1.028763595603582</v>
       </c>
       <c r="N21">
-        <v>1.020693343089481</v>
+        <v>1.020693343089482</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.980526504041207</v>
+        <v>0.9805265040412083</v>
       </c>
       <c r="D22">
-        <v>1.007321427601819</v>
+        <v>1.00732142760182</v>
       </c>
       <c r="E22">
-        <v>0.9964767878257177</v>
+        <v>0.9964767878257189</v>
       </c>
       <c r="F22">
-        <v>1.006230960884411</v>
+        <v>1.006230960884412</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042460422964047</v>
+        <v>1.042460422964048</v>
       </c>
       <c r="J22">
-        <v>1.012145858201197</v>
+        <v>1.012145858201198</v>
       </c>
       <c r="K22">
-        <v>1.022749227599049</v>
+        <v>1.02274922759905</v>
       </c>
       <c r="L22">
-        <v>1.012118364838479</v>
+        <v>1.012118364838481</v>
       </c>
       <c r="M22">
-        <v>1.021679983636196</v>
+        <v>1.021679983636197</v>
       </c>
       <c r="N22">
-        <v>1.013583221414595</v>
+        <v>1.013583221414596</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9852204033172958</v>
+        <v>0.9852204033172948</v>
       </c>
       <c r="D23">
-        <v>1.011074564000998</v>
+        <v>1.011074564000997</v>
       </c>
       <c r="E23">
-        <v>1.000586804393551</v>
+        <v>1.00058680439355</v>
       </c>
       <c r="F23">
-        <v>1.01041241334604</v>
+        <v>1.010412413346039</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,16 +1300,16 @@
         <v>1.044202484307221</v>
       </c>
       <c r="J23">
-        <v>1.015947339442892</v>
+        <v>1.015947339442891</v>
       </c>
       <c r="K23">
         <v>1.026121972604762</v>
       </c>
       <c r="L23">
-        <v>1.01583410333706</v>
+        <v>1.015834103337059</v>
       </c>
       <c r="M23">
-        <v>1.025472281821397</v>
+        <v>1.025472281821396</v>
       </c>
       <c r="N23">
         <v>1.017390101195689</v>
@@ -1323,31 +1323,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002733548208412</v>
+        <v>1.002733548208411</v>
       </c>
       <c r="D24">
         <v>1.025099715368394</v>
       </c>
       <c r="E24">
-        <v>1.015939304591456</v>
+        <v>1.015939304591455</v>
       </c>
       <c r="F24">
-        <v>1.026040620913283</v>
+        <v>1.026040620913282</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050672538185992</v>
+        <v>1.050672538185991</v>
       </c>
       <c r="J24">
         <v>1.030126776971384</v>
       </c>
       <c r="K24">
-        <v>1.038699937375944</v>
+        <v>1.038699937375943</v>
       </c>
       <c r="L24">
-        <v>1.029692173059598</v>
+        <v>1.029692173059597</v>
       </c>
       <c r="M24">
         <v>1.039625362467071</v>
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021384081251975</v>
+        <v>1.021384081251976</v>
       </c>
       <c r="D25">
-        <v>1.0400682929103</v>
+        <v>1.040068292910301</v>
       </c>
       <c r="E25">
         <v>1.032315684430876</v>
       </c>
       <c r="F25">
-        <v>1.042727612253603</v>
+        <v>1.042727612253604</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,19 +1382,19 @@
         <v>1.05749767692897</v>
       </c>
       <c r="J25">
-        <v>1.045212611450644</v>
+        <v>1.045212611450645</v>
       </c>
       <c r="K25">
-        <v>1.052074886499748</v>
+        <v>1.052074886499749</v>
       </c>
       <c r="L25">
-        <v>1.044432229562563</v>
+        <v>1.044432229562564</v>
       </c>
       <c r="M25">
-        <v>1.054696965398476</v>
+        <v>1.054696965398477</v>
       </c>
       <c r="N25">
-        <v>1.046696933246467</v>
+        <v>1.046696933246468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035168786458734</v>
+        <v>1.014095306527531</v>
       </c>
       <c r="D2">
-        <v>1.051148304889745</v>
+        <v>1.03276179168121</v>
       </c>
       <c r="E2">
-        <v>1.044433840102236</v>
+        <v>1.028129393971696</v>
       </c>
       <c r="F2">
-        <v>1.055087674947053</v>
+        <v>1.038121931995202</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062486001804843</v>
+        <v>1.053146092763755</v>
       </c>
       <c r="J2">
-        <v>1.056346180894208</v>
+        <v>1.035862450257046</v>
       </c>
       <c r="K2">
-        <v>1.061938248153529</v>
+        <v>1.043782818386961</v>
       </c>
       <c r="L2">
-        <v>1.055306995917616</v>
+        <v>1.039210272499601</v>
       </c>
       <c r="M2">
-        <v>1.065829410256179</v>
+        <v>1.049074536660122</v>
       </c>
       <c r="N2">
-        <v>1.057846313635678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015406092907569</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047411561875662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04464534576791</v>
+        <v>1.018961094874109</v>
       </c>
       <c r="D3">
-        <v>1.058771422994923</v>
+        <v>1.036285568842953</v>
       </c>
       <c r="E3">
-        <v>1.052770203206371</v>
+        <v>1.031969882145753</v>
       </c>
       <c r="F3">
-        <v>1.063596969078023</v>
+        <v>1.041719984398404</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065881133241397</v>
+        <v>1.05444647462145</v>
       </c>
       <c r="J3">
-        <v>1.063988742161603</v>
+        <v>1.038947876636575</v>
       </c>
       <c r="K3">
-        <v>1.068703732849794</v>
+        <v>1.046474301613584</v>
       </c>
       <c r="L3">
-        <v>1.062769629168358</v>
+        <v>1.042209412536575</v>
       </c>
       <c r="M3">
-        <v>1.073475986244168</v>
+        <v>1.051845491416358</v>
       </c>
       <c r="N3">
-        <v>1.065499728216688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016471482129</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049604562766972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050558325396449</v>
+        <v>1.022042091311737</v>
       </c>
       <c r="D4">
-        <v>1.063529667821748</v>
+        <v>1.03851746471059</v>
       </c>
       <c r="E4">
-        <v>1.057973544009868</v>
+        <v>1.03440746503468</v>
       </c>
       <c r="F4">
-        <v>1.068911136850012</v>
+        <v>1.044004310914133</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067983237950092</v>
+        <v>1.055254942911186</v>
       </c>
       <c r="J4">
-        <v>1.068751566266986</v>
+        <v>1.040898283707378</v>
       </c>
       <c r="K4">
-        <v>1.07291735505688</v>
+        <v>1.04817222288536</v>
       </c>
       <c r="L4">
-        <v>1.06741922359018</v>
+        <v>1.044107627043017</v>
       </c>
       <c r="M4">
-        <v>1.07824335547767</v>
+        <v>1.053599138699731</v>
       </c>
       <c r="N4">
-        <v>1.070269316078604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017144409402696</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050992438478508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052995298147354</v>
+        <v>1.023321771741274</v>
       </c>
       <c r="D5">
-        <v>1.065491009889958</v>
+        <v>1.039444565101481</v>
       </c>
       <c r="E5">
-        <v>1.060118379034138</v>
+        <v>1.035421246125442</v>
       </c>
       <c r="F5">
-        <v>1.071102331627734</v>
+        <v>1.044954490933397</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068845610865424</v>
+        <v>1.055587096306956</v>
       </c>
       <c r="J5">
-        <v>1.070713046384585</v>
+        <v>1.041707549941386</v>
       </c>
       <c r="K5">
-        <v>1.074651998564217</v>
+        <v>1.04887587636072</v>
       </c>
       <c r="L5">
-        <v>1.069333802378104</v>
+        <v>1.044895799372502</v>
       </c>
       <c r="M5">
-        <v>1.080207175769164</v>
+        <v>1.054327243318321</v>
       </c>
       <c r="N5">
-        <v>1.072233581722954</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017423485161399</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051568676014096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053401709533348</v>
+        <v>1.023535739170983</v>
       </c>
       <c r="D6">
-        <v>1.065818113675276</v>
+        <v>1.039599583251341</v>
       </c>
       <c r="E6">
-        <v>1.060476087791733</v>
+        <v>1.035590831485455</v>
       </c>
       <c r="F6">
-        <v>1.071467811460983</v>
+        <v>1.045113444883315</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068989191277096</v>
+        <v>1.055642417868331</v>
       </c>
       <c r="J6">
-        <v>1.071040072010095</v>
+        <v>1.041842812417339</v>
       </c>
       <c r="K6">
-        <v>1.074941165498351</v>
+        <v>1.048993435865733</v>
       </c>
       <c r="L6">
-        <v>1.069652992396489</v>
+        <v>1.045027569145505</v>
       </c>
       <c r="M6">
-        <v>1.080534618518018</v>
+        <v>1.054448968154857</v>
       </c>
       <c r="N6">
-        <v>1.072561071762363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01747012228147</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051665011604583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050591075814115</v>
+        <v>1.022059250889681</v>
       </c>
       <c r="D7">
-        <v>1.063556025306182</v>
+        <v>1.038529896175869</v>
       </c>
       <c r="E7">
-        <v>1.058002367201437</v>
+        <v>1.034421053869172</v>
       </c>
       <c r="F7">
-        <v>1.068940580383477</v>
+        <v>1.044017046703307</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067994843253496</v>
+        <v>1.055259411308566</v>
       </c>
       <c r="J7">
-        <v>1.068777932459498</v>
+        <v>1.040909138703225</v>
       </c>
       <c r="K7">
-        <v>1.072940674763625</v>
+        <v>1.048181664647917</v>
       </c>
       <c r="L7">
-        <v>1.067444960412493</v>
+        <v>1.044118196879931</v>
       </c>
       <c r="M7">
-        <v>1.078269751297539</v>
+        <v>1.053608903164112</v>
       </c>
       <c r="N7">
-        <v>1.070295719714133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017148153299096</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05100016628696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038419058818051</v>
+        <v>1.015754061427482</v>
       </c>
       <c r="D8">
-        <v>1.053762428042023</v>
+        <v>1.033962873981864</v>
       </c>
       <c r="E8">
-        <v>1.047292602802583</v>
+        <v>1.029437372274236</v>
       </c>
       <c r="F8">
-        <v>1.058005117778154</v>
+        <v>1.039347205959994</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063653876534043</v>
+        <v>1.053592491176988</v>
       </c>
       <c r="J8">
-        <v>1.058968614221305</v>
+        <v>1.036914936789689</v>
       </c>
       <c r="K8">
-        <v>1.064260258752078</v>
+        <v>1.044701639164298</v>
       </c>
       <c r="L8">
-        <v>1.057867918613806</v>
+        <v>1.040232829648036</v>
       </c>
       <c r="M8">
-        <v>1.068452773444495</v>
+        <v>1.050019320440798</v>
       </c>
       <c r="N8">
-        <v>1.060472471118897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015769623894578</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048159287433804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015108765309754</v>
+        <v>1.004098516122739</v>
       </c>
       <c r="D9">
-        <v>1.035028585504384</v>
+        <v>1.025528894467553</v>
       </c>
       <c r="E9">
-        <v>1.026802817656369</v>
+        <v>1.020273570595629</v>
       </c>
       <c r="F9">
-        <v>1.037108174754838</v>
+        <v>1.030765928376966</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055209998726677</v>
+        <v>1.050394769788634</v>
       </c>
       <c r="J9">
-        <v>1.040139047819684</v>
+        <v>1.029507370754894</v>
       </c>
       <c r="K9">
-        <v>1.047577809260698</v>
+        <v>1.038220929673888</v>
       </c>
       <c r="L9">
-        <v>1.039475506136864</v>
+        <v>1.033046068985308</v>
       </c>
       <c r="M9">
-        <v>1.049626579003485</v>
+        <v>1.043378819411684</v>
       </c>
       <c r="N9">
-        <v>1.041616164573204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013208976414434</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042903812424421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9980132163948928</v>
+        <v>0.9960158282022507</v>
       </c>
       <c r="D10">
-        <v>1.021316294666311</v>
+        <v>1.019708382203974</v>
       </c>
       <c r="E10">
-        <v>1.011798718578983</v>
+        <v>1.013982739724608</v>
       </c>
       <c r="F10">
-        <v>1.021824260145302</v>
+        <v>1.024909008219451</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048933754691926</v>
+        <v>1.048120127074327</v>
       </c>
       <c r="J10">
-        <v>1.026305883355814</v>
+        <v>1.024388416847696</v>
       </c>
       <c r="K10">
-        <v>1.035311055116366</v>
+        <v>1.03373068545762</v>
       </c>
       <c r="L10">
-        <v>1.025958161870129</v>
+        <v>1.028104038985564</v>
       </c>
       <c r="M10">
-        <v>1.035810342653707</v>
+        <v>1.038842630162041</v>
       </c>
       <c r="N10">
-        <v>1.02776335542911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011451313915269</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039365108887405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9901567329190685</v>
+        <v>0.993186964351412</v>
       </c>
       <c r="D11">
-        <v>1.015024353910761</v>
+        <v>1.017817526334429</v>
       </c>
       <c r="E11">
-        <v>1.004911364924815</v>
+        <v>1.012011929734139</v>
       </c>
       <c r="F11">
-        <v>1.014813199905894</v>
+        <v>1.023311332563861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046031167255159</v>
+        <v>1.047443506656331</v>
       </c>
       <c r="J11">
-        <v>1.019944815083849</v>
+        <v>1.022845946164819</v>
       </c>
       <c r="K11">
-        <v>1.029668388043606</v>
+        <v>1.0324110748569</v>
       </c>
       <c r="L11">
-        <v>1.019741250670864</v>
+        <v>1.026710819039839</v>
       </c>
       <c r="M11">
-        <v>1.029461065271194</v>
+        <v>1.037806625933013</v>
       </c>
       <c r="N11">
-        <v>1.021393253710574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01104283646694</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038981184924308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9871613643053723</v>
+        <v>0.9924153500668323</v>
       </c>
       <c r="D12">
-        <v>1.012627282006545</v>
+        <v>1.017369355579701</v>
       </c>
       <c r="E12">
-        <v>1.002286946316718</v>
+        <v>1.011581216477287</v>
       </c>
       <c r="F12">
-        <v>1.012142391386891</v>
+        <v>1.023083821295231</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044921947893173</v>
+        <v>1.047319077519536</v>
       </c>
       <c r="J12">
-        <v>1.017519195384057</v>
+        <v>1.022544211121253</v>
       </c>
       <c r="K12">
-        <v>1.02751649685086</v>
+        <v>1.032171183934713</v>
       </c>
       <c r="L12">
-        <v>1.017370462810952</v>
+        <v>1.026489851999582</v>
       </c>
       <c r="M12">
-        <v>1.027040601934456</v>
+        <v>1.037781743204979</v>
       </c>
       <c r="N12">
-        <v>1.018964189352585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011037456938765</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039287719993756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,81 +950,93 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9878075325763492</v>
+        <v>0.9931840921093232</v>
       </c>
       <c r="D13">
-        <v>1.013144297197585</v>
+        <v>1.018008961035354</v>
       </c>
       <c r="E13">
-        <v>1.002853021919107</v>
+        <v>1.012313543931179</v>
       </c>
       <c r="F13">
-        <v>1.012718438717758</v>
+        <v>1.023909161291315</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045161344618175</v>
+        <v>1.047620617206846</v>
       </c>
       <c r="J13">
-        <v>1.018042470473301</v>
+        <v>1.023186053478189</v>
       </c>
       <c r="K13">
-        <v>1.027980729320901</v>
+        <v>1.032756180003411</v>
       </c>
       <c r="L13">
-        <v>1.017881914944529</v>
+        <v>1.02716532299736</v>
       </c>
       <c r="M13">
-        <v>1.02756273384915</v>
+        <v>1.038549654369898</v>
       </c>
       <c r="N13">
-        <v>1.019488207552477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011344193980879</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04017136879363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9899107656396131</v>
+        <v>0.9944151600074639</v>
       </c>
       <c r="D14">
-        <v>1.014827477783951</v>
+        <v>1.018945381656882</v>
       </c>
       <c r="E14">
-        <v>1.004695827361995</v>
+        <v>1.013348168240752</v>
       </c>
       <c r="F14">
-        <v>1.014593837078529</v>
+        <v>1.024959791108027</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045940133822209</v>
+        <v>1.048022316593017</v>
       </c>
       <c r="J14">
-        <v>1.019745640024602</v>
+        <v>1.024058123786433</v>
       </c>
       <c r="K14">
-        <v>1.029491693555447</v>
+        <v>1.03353515893768</v>
       </c>
       <c r="L14">
-        <v>1.01954658067718</v>
+        <v>1.028039317436734</v>
       </c>
       <c r="M14">
-        <v>1.029262299893468</v>
+        <v>1.03944224134278</v>
       </c>
       <c r="N14">
-        <v>1.021193795799896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011697844707954</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041050111468232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9911961224500799</v>
+        <v>0.9950551040922145</v>
       </c>
       <c r="D15">
-        <v>1.015856372829178</v>
+        <v>1.019416233812463</v>
       </c>
       <c r="E15">
-        <v>1.005822227677103</v>
+        <v>1.01386084860932</v>
       </c>
       <c r="F15">
-        <v>1.01574025880009</v>
+        <v>1.025456640791199</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046415745957845</v>
+        <v>1.048215980996696</v>
       </c>
       <c r="J15">
-        <v>1.020786458874914</v>
+        <v>1.024482709558387</v>
       </c>
       <c r="K15">
-        <v>1.030415028615622</v>
+        <v>1.033911100720051</v>
       </c>
       <c r="L15">
-        <v>1.020563852171861</v>
+        <v>1.028455516830496</v>
       </c>
       <c r="M15">
-        <v>1.030301005011326</v>
+        <v>1.039844583350461</v>
       </c>
       <c r="N15">
-        <v>1.022236092732359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011854759912105</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041405623167221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9985243364041795</v>
+        <v>0.9983431610143135</v>
       </c>
       <c r="D16">
-        <v>1.021725856879352</v>
+        <v>1.021771307399764</v>
       </c>
       <c r="E16">
-        <v>1.012246974537879</v>
+        <v>1.016394248179414</v>
       </c>
       <c r="F16">
-        <v>1.022280667807487</v>
+        <v>1.027808267564247</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04912222656018</v>
+        <v>1.049145227244548</v>
       </c>
       <c r="J16">
-        <v>1.026719651462681</v>
+        <v>1.026545673157332</v>
       </c>
       <c r="K16">
-        <v>1.03567806007469</v>
+        <v>1.035722736748708</v>
       </c>
       <c r="L16">
-        <v>1.026362532744045</v>
+        <v>1.030437849141271</v>
       </c>
       <c r="M16">
-        <v>1.036223430797795</v>
+        <v>1.041657694988376</v>
       </c>
       <c r="N16">
-        <v>1.028177711134148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012544992534212</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042800042423386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002993789235169</v>
+        <v>1.000218399978943</v>
       </c>
       <c r="D17">
-        <v>1.025308366881913</v>
+        <v>1.023085334917391</v>
       </c>
       <c r="E17">
-        <v>1.016167635779313</v>
+        <v>1.017794461843197</v>
       </c>
       <c r="F17">
-        <v>1.026273162013577</v>
+        <v>1.029056542808058</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050768279955202</v>
+        <v>1.049642803855274</v>
       </c>
       <c r="J17">
-        <v>1.030337404689163</v>
+        <v>1.027668187984183</v>
       </c>
       <c r="K17">
-        <v>1.038886737794054</v>
+        <v>1.03670035006465</v>
       </c>
       <c r="L17">
-        <v>1.029898004275189</v>
+        <v>1.031497521082847</v>
       </c>
       <c r="M17">
-        <v>1.039835692858321</v>
+        <v>1.042573589778798</v>
       </c>
       <c r="N17">
-        <v>1.031800601985173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012888117884794</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043395189697513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005557622414127</v>
+        <v>1.001043178272779</v>
       </c>
       <c r="D18">
-        <v>1.027364299603855</v>
+        <v>1.023609763387091</v>
       </c>
       <c r="E18">
-        <v>1.018417386692809</v>
+        <v>1.018327451698877</v>
       </c>
       <c r="F18">
-        <v>1.028564570722219</v>
+        <v>1.029435909293879</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051710802379227</v>
+        <v>1.049809486073332</v>
       </c>
       <c r="J18">
-        <v>1.032412301255279</v>
+        <v>1.028066833434685</v>
       </c>
       <c r="K18">
-        <v>1.040726834757762</v>
+        <v>1.03703303698979</v>
       </c>
       <c r="L18">
-        <v>1.031925608439122</v>
+        <v>1.031837154614865</v>
       </c>
       <c r="M18">
-        <v>1.041907808646551</v>
+        <v>1.042765174516697</v>
       </c>
       <c r="N18">
-        <v>1.033878445142407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012954617748708</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043309474341441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006424753457463</v>
+        <v>1.000909883961311</v>
       </c>
       <c r="D19">
-        <v>1.028059790629158</v>
+        <v>1.02341232553307</v>
       </c>
       <c r="E19">
-        <v>1.019178405709887</v>
+        <v>1.018066644890363</v>
       </c>
       <c r="F19">
-        <v>1.029339754654934</v>
+        <v>1.029019425671362</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052029284466913</v>
+        <v>1.04967560334401</v>
       </c>
       <c r="J19">
-        <v>1.033113997740678</v>
+        <v>1.027804134501824</v>
       </c>
       <c r="K19">
-        <v>1.041349093055469</v>
+        <v>1.036776364572033</v>
       </c>
       <c r="L19">
-        <v>1.032611293654098</v>
+        <v>1.031517733525303</v>
       </c>
       <c r="M19">
-        <v>1.042608625687041</v>
+        <v>1.042293403835253</v>
       </c>
       <c r="N19">
-        <v>1.034581138117302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012772678299666</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042611733375349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002518778851479</v>
+        <v>0.9981190931277627</v>
       </c>
       <c r="D20">
-        <v>1.024927526296822</v>
+        <v>1.021222838661344</v>
       </c>
       <c r="E20">
-        <v>1.015750873574418</v>
+        <v>1.015618142565603</v>
       </c>
       <c r="F20">
-        <v>1.025848718139462</v>
+        <v>1.02643286219104</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050593515546394</v>
+        <v>1.048718059168962</v>
       </c>
       <c r="J20">
-        <v>1.029952949898883</v>
+        <v>1.025722713621638</v>
       </c>
       <c r="K20">
-        <v>1.038545773481408</v>
+        <v>1.034902500265325</v>
       </c>
       <c r="L20">
-        <v>1.029522303871917</v>
+        <v>1.029391814703828</v>
       </c>
       <c r="M20">
-        <v>1.039451782858881</v>
+        <v>1.040026317600198</v>
       </c>
       <c r="N20">
-        <v>1.031415601224994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011910186563132</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040291334132213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9892936248996544</v>
+        <v>0.9918746087217835</v>
       </c>
       <c r="D21">
-        <v>1.014333538608227</v>
+        <v>1.016703524029771</v>
       </c>
       <c r="E21">
-        <v>1.004155060252111</v>
+        <v>1.010729294330758</v>
       </c>
       <c r="F21">
-        <v>1.014043484819243</v>
+        <v>1.021836471578358</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045711686927546</v>
+        <v>1.046909925910226</v>
       </c>
       <c r="J21">
-        <v>1.019245897006594</v>
+        <v>1.021716021689535</v>
       </c>
       <c r="K21">
-        <v>1.029048352558253</v>
+        <v>1.031375205646825</v>
       </c>
       <c r="L21">
-        <v>1.019058139020127</v>
+        <v>1.025510208638677</v>
       </c>
       <c r="M21">
-        <v>1.028763595603582</v>
+        <v>1.036415627491925</v>
       </c>
       <c r="N21">
-        <v>1.020693343089482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010511648482042</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037392910162915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9805265040412083</v>
+        <v>0.9878966233022977</v>
       </c>
       <c r="D22">
-        <v>1.00732142760182</v>
+        <v>1.01383733256517</v>
       </c>
       <c r="E22">
-        <v>0.9964767878257189</v>
+        <v>1.007637788531783</v>
       </c>
       <c r="F22">
-        <v>1.006230960884412</v>
+        <v>1.018946006564093</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042460422964048</v>
+        <v>1.045752081489234</v>
       </c>
       <c r="J22">
-        <v>1.012145858201198</v>
+        <v>1.019177393446361</v>
       </c>
       <c r="K22">
-        <v>1.02274922759905</v>
+        <v>1.02913956439591</v>
       </c>
       <c r="L22">
-        <v>1.012118364838481</v>
+        <v>1.02305944275529</v>
       </c>
       <c r="M22">
-        <v>1.021679983636197</v>
+        <v>1.034151256432071</v>
       </c>
       <c r="N22">
-        <v>1.013583221414596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009632175251754</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035600802263504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9852204033172948</v>
+        <v>0.9900151637797606</v>
       </c>
       <c r="D23">
-        <v>1.011074564000997</v>
+        <v>1.015363373288408</v>
       </c>
       <c r="E23">
-        <v>1.00058680439355</v>
+        <v>1.00928333964148</v>
       </c>
       <c r="F23">
-        <v>1.010412413346039</v>
+        <v>1.020484428450887</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044202484307221</v>
+        <v>1.046370024894393</v>
       </c>
       <c r="J23">
-        <v>1.015947339442891</v>
+        <v>1.020529520430413</v>
       </c>
       <c r="K23">
-        <v>1.026121972604762</v>
+        <v>1.030330591502162</v>
       </c>
       <c r="L23">
-        <v>1.015834103337059</v>
+        <v>1.024364503483907</v>
       </c>
       <c r="M23">
-        <v>1.025472281821396</v>
+        <v>1.035357045270044</v>
       </c>
       <c r="N23">
-        <v>1.017390101195689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010100631338615</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036555109185241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002733548208411</v>
+        <v>0.9981456391373263</v>
       </c>
       <c r="D24">
-        <v>1.025099715368394</v>
+        <v>1.02122797311741</v>
       </c>
       <c r="E24">
-        <v>1.015939304591455</v>
+        <v>1.015617236083801</v>
       </c>
       <c r="F24">
-        <v>1.026040620913282</v>
+        <v>1.026408465854666</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050672538185991</v>
+        <v>1.048712473312433</v>
       </c>
       <c r="J24">
-        <v>1.030126776971384</v>
+        <v>1.025715258496796</v>
       </c>
       <c r="K24">
-        <v>1.038699937375943</v>
+        <v>1.034892282418808</v>
       </c>
       <c r="L24">
-        <v>1.029692173059597</v>
+        <v>1.029375536047679</v>
       </c>
       <c r="M24">
-        <v>1.039625362467071</v>
+        <v>1.039987165283202</v>
       </c>
       <c r="N24">
-        <v>1.031589675151876</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011896572308461</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040219549527563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021384081251976</v>
+        <v>1.007180484026254</v>
       </c>
       <c r="D25">
-        <v>1.040068292910301</v>
+        <v>1.027757561115018</v>
       </c>
       <c r="E25">
-        <v>1.032315684430876</v>
+        <v>1.022690597875049</v>
       </c>
       <c r="F25">
-        <v>1.042727612253604</v>
+        <v>1.033028597207873</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05749767692897</v>
+        <v>1.051253486005267</v>
       </c>
       <c r="J25">
-        <v>1.045212611450645</v>
+        <v>1.031468589298836</v>
       </c>
       <c r="K25">
-        <v>1.052074886499749</v>
+        <v>1.039939733304212</v>
       </c>
       <c r="L25">
-        <v>1.044432229562564</v>
+        <v>1.034946594755242</v>
       </c>
       <c r="M25">
-        <v>1.054696965398477</v>
+        <v>1.045134944237103</v>
       </c>
       <c r="N25">
-        <v>1.046696933246468</v>
+        <v>1.013887361851673</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04429366153811</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014095306527531</v>
+        <v>1.012862116958235</v>
       </c>
       <c r="D2">
-        <v>1.03276179168121</v>
+        <v>1.031006183764614</v>
       </c>
       <c r="E2">
-        <v>1.028129393971696</v>
+        <v>1.027049750572013</v>
       </c>
       <c r="F2">
-        <v>1.038121931995202</v>
+        <v>1.036915090169848</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053146092763755</v>
+        <v>1.052254561929603</v>
       </c>
       <c r="J2">
-        <v>1.035862450257046</v>
+        <v>1.034664814018429</v>
       </c>
       <c r="K2">
-        <v>1.043782818386961</v>
+        <v>1.042049814220889</v>
       </c>
       <c r="L2">
-        <v>1.039210272499601</v>
+        <v>1.03814467553039</v>
       </c>
       <c r="M2">
-        <v>1.049074536660122</v>
+        <v>1.047883023070208</v>
       </c>
       <c r="N2">
-        <v>1.015406092907569</v>
+        <v>1.016099757157169</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047411561875662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.0464685670852</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023148315031188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018961094874109</v>
+        <v>1.017369839880813</v>
       </c>
       <c r="D3">
-        <v>1.036285568842953</v>
+        <v>1.03413940793695</v>
       </c>
       <c r="E3">
-        <v>1.031969882145753</v>
+        <v>1.030576204589097</v>
       </c>
       <c r="F3">
-        <v>1.041719984398404</v>
+        <v>1.040211727019533</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05444647462145</v>
+        <v>1.053355469336316</v>
       </c>
       <c r="J3">
-        <v>1.038947876636575</v>
+        <v>1.037397930773095</v>
       </c>
       <c r="K3">
-        <v>1.046474301613584</v>
+        <v>1.044353336401645</v>
       </c>
       <c r="L3">
-        <v>1.042209412536575</v>
+        <v>1.040832251811966</v>
       </c>
       <c r="M3">
-        <v>1.051845491416358</v>
+        <v>1.050354699730271</v>
       </c>
       <c r="N3">
-        <v>1.016471482129</v>
+        <v>1.016845730588448</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049604562766972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048424714825794</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023663599764598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022042091311737</v>
+        <v>1.020227220601124</v>
       </c>
       <c r="D4">
-        <v>1.03851746471059</v>
+        <v>1.036126120035437</v>
       </c>
       <c r="E4">
-        <v>1.03440746503468</v>
+        <v>1.032817368701525</v>
       </c>
       <c r="F4">
-        <v>1.044004310914133</v>
+        <v>1.042307267426846</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055254942911186</v>
+        <v>1.054038462598159</v>
       </c>
       <c r="J4">
-        <v>1.040898283707378</v>
+        <v>1.039127292333466</v>
       </c>
       <c r="K4">
-        <v>1.04817222288536</v>
+        <v>1.045807241915099</v>
       </c>
       <c r="L4">
-        <v>1.044107627043017</v>
+        <v>1.042535216032975</v>
       </c>
       <c r="M4">
-        <v>1.053599138699731</v>
+        <v>1.05192054854669</v>
       </c>
       <c r="N4">
-        <v>1.017144409402696</v>
+        <v>1.017317509775042</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050992438478508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049663964712774</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023986122262482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023321771741274</v>
+        <v>1.021414718561945</v>
       </c>
       <c r="D5">
-        <v>1.039444565101481</v>
+        <v>1.036951860376904</v>
       </c>
       <c r="E5">
-        <v>1.035421246125442</v>
+        <v>1.03375011714044</v>
       </c>
       <c r="F5">
-        <v>1.044954490933397</v>
+        <v>1.043179501998156</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055587096306956</v>
+        <v>1.054318685183851</v>
       </c>
       <c r="J5">
-        <v>1.041707549941386</v>
+        <v>1.039845208498741</v>
       </c>
       <c r="K5">
-        <v>1.04887587636072</v>
+        <v>1.046409914360458</v>
       </c>
       <c r="L5">
-        <v>1.044895799372502</v>
+        <v>1.04324275276322</v>
       </c>
       <c r="M5">
-        <v>1.054327243318321</v>
+        <v>1.052571036120427</v>
       </c>
       <c r="N5">
-        <v>1.017423485161399</v>
+        <v>1.017513302666642</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051568676014096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050178775398304</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024119157284592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023535739170983</v>
+        <v>1.021613312202125</v>
       </c>
       <c r="D6">
-        <v>1.039599583251341</v>
+        <v>1.037089957864987</v>
       </c>
       <c r="E6">
-        <v>1.035590831485455</v>
+        <v>1.033906184890273</v>
       </c>
       <c r="F6">
-        <v>1.045113444883315</v>
+        <v>1.043325449727112</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055642417868331</v>
+        <v>1.054365334165328</v>
       </c>
       <c r="J6">
-        <v>1.041842812417339</v>
+        <v>1.039965223174314</v>
       </c>
       <c r="K6">
-        <v>1.048993435865733</v>
+        <v>1.046510610549308</v>
       </c>
       <c r="L6">
-        <v>1.045027569145505</v>
+        <v>1.043361066313307</v>
       </c>
       <c r="M6">
-        <v>1.054448968154857</v>
+        <v>1.052679805004849</v>
       </c>
       <c r="N6">
-        <v>1.01747012228147</v>
+        <v>1.017546030003208</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051665011604583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050264857536791</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024141346301595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022059250889681</v>
+        <v>1.020254642960655</v>
       </c>
       <c r="D7">
-        <v>1.038529896175869</v>
+        <v>1.036145786844043</v>
       </c>
       <c r="E7">
-        <v>1.034421053869172</v>
+        <v>1.03283988747782</v>
       </c>
       <c r="F7">
-        <v>1.044017046703307</v>
+        <v>1.042327168989441</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055259411308566</v>
+        <v>1.054046606781259</v>
       </c>
       <c r="J7">
-        <v>1.040909138703225</v>
+        <v>1.039148143544425</v>
       </c>
       <c r="K7">
-        <v>1.048181664647917</v>
+        <v>1.045823829507648</v>
       </c>
       <c r="L7">
-        <v>1.044118196879931</v>
+        <v>1.042554609877649</v>
       </c>
       <c r="M7">
-        <v>1.053608903164112</v>
+        <v>1.051937394054238</v>
       </c>
       <c r="N7">
-        <v>1.017148153299096</v>
+        <v>1.017349859868717</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05100016628696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049677296635712</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023990770881027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015754061427482</v>
+        <v>1.014433679261743</v>
       </c>
       <c r="D8">
-        <v>1.033962873981864</v>
+        <v>1.032100328288919</v>
       </c>
       <c r="E8">
-        <v>1.029437372274236</v>
+        <v>1.028281225793652</v>
       </c>
       <c r="F8">
-        <v>1.039347205959994</v>
+        <v>1.038062628152214</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053592491176988</v>
+        <v>1.052646320923529</v>
       </c>
       <c r="J8">
-        <v>1.036914936789689</v>
+        <v>1.035631318074632</v>
       </c>
       <c r="K8">
-        <v>1.044701639164298</v>
+        <v>1.042862351039598</v>
       </c>
       <c r="L8">
-        <v>1.040232829648036</v>
+        <v>1.039091266387665</v>
       </c>
       <c r="M8">
-        <v>1.050019320440798</v>
+        <v>1.048750565793733</v>
       </c>
       <c r="N8">
-        <v>1.015769623894578</v>
+        <v>1.016444892387102</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048159287433804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047155163039972</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023333693622033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004098516122739</v>
+        <v>1.003661738633183</v>
       </c>
       <c r="D9">
-        <v>1.025528894467553</v>
+        <v>1.024619818695742</v>
       </c>
       <c r="E9">
-        <v>1.020273570595629</v>
+        <v>1.019890232932833</v>
       </c>
       <c r="F9">
-        <v>1.030765928376966</v>
+        <v>1.030220822858422</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050394769788634</v>
+        <v>1.049934062835767</v>
       </c>
       <c r="J9">
-        <v>1.029507370754894</v>
+        <v>1.029085850816394</v>
       </c>
       <c r="K9">
-        <v>1.038220929673888</v>
+        <v>1.037325697293061</v>
       </c>
       <c r="L9">
-        <v>1.033046068985308</v>
+        <v>1.032668641955728</v>
       </c>
       <c r="M9">
-        <v>1.043378819411684</v>
+        <v>1.042841903985925</v>
       </c>
       <c r="N9">
-        <v>1.013208976414434</v>
+        <v>1.014667508163405</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042903812424421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042478881150772</v>
+      </c>
+      <c r="S9">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T9">
+        <v>1.022080520347334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9960158282022507</v>
+        <v>0.9962579609487772</v>
       </c>
       <c r="D10">
-        <v>1.019708382203974</v>
+        <v>1.019507823993446</v>
       </c>
       <c r="E10">
-        <v>1.013982739724608</v>
+        <v>1.014189662320206</v>
       </c>
       <c r="F10">
-        <v>1.024909008219451</v>
+        <v>1.024922384566863</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048120127074327</v>
+        <v>1.048018645449702</v>
       </c>
       <c r="J10">
-        <v>1.024388416847696</v>
+        <v>1.024620836918375</v>
       </c>
       <c r="K10">
-        <v>1.03373068545762</v>
+        <v>1.033533570594612</v>
       </c>
       <c r="L10">
-        <v>1.028104038985564</v>
+        <v>1.028307358698451</v>
       </c>
       <c r="M10">
-        <v>1.038842630162041</v>
+        <v>1.03885577991294</v>
       </c>
       <c r="N10">
-        <v>1.011451313915269</v>
+        <v>1.013578387139528</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039365108887405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039375515402541</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021220222564076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.993186964351412</v>
+        <v>0.9936886468393221</v>
       </c>
       <c r="D11">
-        <v>1.017817526334429</v>
+        <v>1.017876733005779</v>
       </c>
       <c r="E11">
-        <v>1.012011929734139</v>
+        <v>1.012435136067934</v>
       </c>
       <c r="F11">
-        <v>1.023311332563861</v>
+        <v>1.023532174903595</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047443506656331</v>
+        <v>1.047473445777643</v>
       </c>
       <c r="J11">
-        <v>1.022845946164819</v>
+        <v>1.023326363133419</v>
       </c>
       <c r="K11">
-        <v>1.0324110748569</v>
+        <v>1.03246921528598</v>
       </c>
       <c r="L11">
-        <v>1.026710819039839</v>
+        <v>1.027126293280948</v>
       </c>
       <c r="M11">
-        <v>1.037806625933013</v>
+        <v>1.038023547184195</v>
       </c>
       <c r="N11">
-        <v>1.01104283646694</v>
+        <v>1.013540281398374</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038981184924308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039152767023024</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02104143371169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9924153500668323</v>
+        <v>0.9929719986270481</v>
       </c>
       <c r="D12">
-        <v>1.017369355579701</v>
+        <v>1.017485400903581</v>
       </c>
       <c r="E12">
-        <v>1.011581216477287</v>
+        <v>1.012044125349529</v>
       </c>
       <c r="F12">
-        <v>1.023083821295231</v>
+        <v>1.023347999994485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047319077519536</v>
+        <v>1.04737774505277</v>
       </c>
       <c r="J12">
-        <v>1.022544211121253</v>
+        <v>1.023076803366245</v>
       </c>
       <c r="K12">
-        <v>1.032171183934713</v>
+        <v>1.032285104081804</v>
       </c>
       <c r="L12">
-        <v>1.026489851999582</v>
+        <v>1.026944160301222</v>
       </c>
       <c r="M12">
-        <v>1.037781743204979</v>
+        <v>1.038041154809252</v>
       </c>
       <c r="N12">
-        <v>1.011037456938765</v>
+        <v>1.013638152496264</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039287719993756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03949284208222</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021044642061923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9931840921093232</v>
+        <v>0.9936245497309815</v>
       </c>
       <c r="D13">
-        <v>1.018008961035354</v>
+        <v>1.018016425038813</v>
       </c>
       <c r="E13">
-        <v>1.012313543931179</v>
+        <v>1.012668806595653</v>
       </c>
       <c r="F13">
-        <v>1.023909161291315</v>
+        <v>1.024081299057436</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047620617206846</v>
+        <v>1.047624390951516</v>
       </c>
       <c r="J13">
-        <v>1.023186053478189</v>
+        <v>1.023607584596126</v>
       </c>
       <c r="K13">
-        <v>1.032756180003411</v>
+        <v>1.032763507976975</v>
       </c>
       <c r="L13">
-        <v>1.02716532299736</v>
+        <v>1.02751401869058</v>
       </c>
       <c r="M13">
-        <v>1.038549654369898</v>
+        <v>1.038718702404919</v>
       </c>
       <c r="N13">
-        <v>1.011344193980879</v>
+        <v>1.013810683173991</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04017136879363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040305005013597</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02118841551512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9944151600074639</v>
+        <v>0.9946994437912769</v>
       </c>
       <c r="D14">
-        <v>1.018945381656882</v>
+        <v>1.018804295954978</v>
       </c>
       <c r="E14">
-        <v>1.013348168240752</v>
+        <v>1.013564258468279</v>
       </c>
       <c r="F14">
-        <v>1.024959791108027</v>
+        <v>1.025008494112856</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048022316593017</v>
+        <v>1.04795097162473</v>
       </c>
       <c r="J14">
-        <v>1.024058123786433</v>
+        <v>1.024330378652633</v>
       </c>
       <c r="K14">
-        <v>1.03353515893768</v>
+        <v>1.03339661067568</v>
       </c>
       <c r="L14">
-        <v>1.028039317436734</v>
+        <v>1.028251466980859</v>
       </c>
       <c r="M14">
-        <v>1.03944224134278</v>
+        <v>1.039490081911874</v>
       </c>
       <c r="N14">
-        <v>1.011697844707954</v>
+        <v>1.013966023474934</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041050111468232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041087925408378</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021352392885439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9950551040922145</v>
+        <v>0.9952646224564948</v>
       </c>
       <c r="D15">
-        <v>1.019416233812463</v>
+        <v>1.019203211270332</v>
       </c>
       <c r="E15">
-        <v>1.01386084860932</v>
+        <v>1.01401158936627</v>
       </c>
       <c r="F15">
-        <v>1.025456640791199</v>
+        <v>1.02544619596376</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048215980996696</v>
+        <v>1.048108246894613</v>
       </c>
       <c r="J15">
-        <v>1.024482709558387</v>
+        <v>1.024683444056469</v>
       </c>
       <c r="K15">
-        <v>1.033911100720051</v>
+        <v>1.033701879038378</v>
       </c>
       <c r="L15">
-        <v>1.028455516830496</v>
+        <v>1.028603530793256</v>
       </c>
       <c r="M15">
-        <v>1.039844583350461</v>
+        <v>1.039834322003264</v>
       </c>
       <c r="N15">
-        <v>1.011854759912105</v>
+        <v>1.014025568031548</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041405623167221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041397512648838</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021425592795423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9983431610143135</v>
+        <v>0.9982080444372627</v>
       </c>
       <c r="D16">
-        <v>1.021771307399764</v>
+        <v>1.021219602323856</v>
       </c>
       <c r="E16">
-        <v>1.016394248179414</v>
+        <v>1.016248857430154</v>
       </c>
       <c r="F16">
-        <v>1.027808267564247</v>
+        <v>1.027523282628192</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049145227244548</v>
+        <v>1.048866034359522</v>
       </c>
       <c r="J16">
-        <v>1.026545673157332</v>
+        <v>1.02641592641437</v>
       </c>
       <c r="K16">
-        <v>1.035722736748708</v>
+        <v>1.035180431088481</v>
       </c>
       <c r="L16">
-        <v>1.030437849141271</v>
+        <v>1.030294968144734</v>
       </c>
       <c r="M16">
-        <v>1.041657694988376</v>
+        <v>1.041377490475693</v>
       </c>
       <c r="N16">
-        <v>1.012544992534212</v>
+        <v>1.014271649347448</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042800042423386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.042578563713387</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021753723255246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000218399978943</v>
+        <v>0.9999139525568365</v>
       </c>
       <c r="D17">
-        <v>1.023085334917391</v>
+        <v>1.022361251723764</v>
       </c>
       <c r="E17">
-        <v>1.017794461843197</v>
+        <v>1.017505453206182</v>
       </c>
       <c r="F17">
-        <v>1.029056542808058</v>
+        <v>1.028634595059297</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049642803855274</v>
+        <v>1.049276236772652</v>
       </c>
       <c r="J17">
-        <v>1.027668187984183</v>
+        <v>1.027375437842751</v>
       </c>
       <c r="K17">
-        <v>1.03670035006465</v>
+        <v>1.03598824687434</v>
       </c>
       <c r="L17">
-        <v>1.031497521082847</v>
+        <v>1.03121335576271</v>
       </c>
       <c r="M17">
-        <v>1.042573589778798</v>
+        <v>1.042158516837331</v>
       </c>
       <c r="N17">
-        <v>1.012888117884794</v>
+        <v>1.014408675425747</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043395189697513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.04306707584237</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021920190166206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001043178272779</v>
+        <v>1.000690183223155</v>
       </c>
       <c r="D18">
-        <v>1.023609763387091</v>
+        <v>1.022830505037578</v>
       </c>
       <c r="E18">
-        <v>1.018327451698877</v>
+        <v>1.018000847888268</v>
       </c>
       <c r="F18">
-        <v>1.029435909293879</v>
+        <v>1.028972922715037</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049809486073332</v>
+        <v>1.049414900786008</v>
       </c>
       <c r="J18">
-        <v>1.028066833434685</v>
+        <v>1.027727141600553</v>
       </c>
       <c r="K18">
-        <v>1.03703303698979</v>
+        <v>1.036266456765426</v>
       </c>
       <c r="L18">
-        <v>1.031837154614865</v>
+        <v>1.031515932583914</v>
       </c>
       <c r="M18">
-        <v>1.042765174516697</v>
+        <v>1.042309608567346</v>
       </c>
       <c r="N18">
-        <v>1.012954617748708</v>
+        <v>1.014417477195584</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043309474341441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.042949276055944</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021953353433081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000909883961311</v>
+        <v>1.000610019770674</v>
       </c>
       <c r="D19">
-        <v>1.02341232553307</v>
+        <v>1.022678918460012</v>
       </c>
       <c r="E19">
-        <v>1.018066644890363</v>
+        <v>1.017792079086003</v>
       </c>
       <c r="F19">
-        <v>1.029019425671362</v>
+        <v>1.028597296723023</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04967560334401</v>
+        <v>1.049304212709679</v>
       </c>
       <c r="J19">
-        <v>1.027804134501824</v>
+        <v>1.027515508500089</v>
       </c>
       <c r="K19">
-        <v>1.036776364572033</v>
+        <v>1.036054831211148</v>
       </c>
       <c r="L19">
-        <v>1.031517733525303</v>
+        <v>1.031247670523715</v>
       </c>
       <c r="M19">
-        <v>1.042293403835253</v>
+        <v>1.041878011282934</v>
       </c>
       <c r="N19">
-        <v>1.012772678299666</v>
+        <v>1.014290233788691</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042611733375349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.042283191778492</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021863104815345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9981190931277627</v>
+        <v>0.9981499876611347</v>
       </c>
       <c r="D20">
-        <v>1.021222838661344</v>
+        <v>1.020811931748883</v>
       </c>
       <c r="E20">
-        <v>1.015618142565603</v>
+        <v>1.015641240295811</v>
       </c>
       <c r="F20">
-        <v>1.02643286219104</v>
+        <v>1.026276100407148</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048718059168962</v>
+        <v>1.048510059404833</v>
       </c>
       <c r="J20">
-        <v>1.025722713621638</v>
+        <v>1.025752410925189</v>
       </c>
       <c r="K20">
-        <v>1.034902500265325</v>
+        <v>1.034498440536188</v>
       </c>
       <c r="L20">
-        <v>1.029391814703828</v>
+        <v>1.029414522256607</v>
       </c>
       <c r="M20">
-        <v>1.040026317600198</v>
+        <v>1.039872133204132</v>
       </c>
       <c r="N20">
-        <v>1.011910186563132</v>
+        <v>1.013783089010912</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040291334132213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.040169313501774</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021437547725333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9918746087217835</v>
+        <v>0.9926109883170859</v>
       </c>
       <c r="D21">
-        <v>1.016703524029771</v>
+        <v>1.01697728251043</v>
       </c>
       <c r="E21">
-        <v>1.010729294330758</v>
+        <v>1.011368817470741</v>
       </c>
       <c r="F21">
-        <v>1.021836471578358</v>
+        <v>1.022242166181561</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046909925910226</v>
+        <v>1.047048343293801</v>
       </c>
       <c r="J21">
-        <v>1.021716021689535</v>
+        <v>1.022420922802705</v>
       </c>
       <c r="K21">
-        <v>1.031375205646825</v>
+        <v>1.031643998731565</v>
       </c>
       <c r="L21">
-        <v>1.025510208638677</v>
+        <v>1.026137958393612</v>
       </c>
       <c r="M21">
-        <v>1.036415627491925</v>
+        <v>1.036814060566173</v>
       </c>
       <c r="N21">
-        <v>1.010511648482042</v>
+        <v>1.013302885998874</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037392910162915</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.0377082445243</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020788897634451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9878966233022977</v>
+        <v>0.9890834673068946</v>
       </c>
       <c r="D22">
-        <v>1.01383733256517</v>
+        <v>1.01454788241027</v>
       </c>
       <c r="E22">
-        <v>1.007637788531783</v>
+        <v>1.008670506833397</v>
       </c>
       <c r="F22">
-        <v>1.018946006564093</v>
+        <v>1.019710748531227</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045752081489234</v>
+        <v>1.046111092362635</v>
       </c>
       <c r="J22">
-        <v>1.019177393446361</v>
+        <v>1.020310389698803</v>
       </c>
       <c r="K22">
-        <v>1.02913956439591</v>
+        <v>1.029836548813957</v>
       </c>
       <c r="L22">
-        <v>1.02305944275529</v>
+        <v>1.02407213415883</v>
       </c>
       <c r="M22">
-        <v>1.034151256432071</v>
+        <v>1.034901589933305</v>
       </c>
       <c r="N22">
-        <v>1.009632175251754</v>
+        <v>1.012998205817402</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035600802263504</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.03619464474506</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020379735392541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9900151637797606</v>
+        <v>0.9909424305677319</v>
       </c>
       <c r="D23">
-        <v>1.015363373288408</v>
+        <v>1.015826266052225</v>
       </c>
       <c r="E23">
-        <v>1.00928333964148</v>
+        <v>1.010089111053172</v>
       </c>
       <c r="F23">
-        <v>1.020484428450887</v>
+        <v>1.021043599864632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046370024894393</v>
+        <v>1.046603993472241</v>
       </c>
       <c r="J23">
-        <v>1.020529520430413</v>
+        <v>1.021416015391585</v>
       </c>
       <c r="K23">
-        <v>1.030330591502162</v>
+        <v>1.03078488209152</v>
       </c>
       <c r="L23">
-        <v>1.024364503483907</v>
+        <v>1.025155070951463</v>
       </c>
       <c r="M23">
-        <v>1.035357045270044</v>
+        <v>1.035905961930655</v>
       </c>
       <c r="N23">
-        <v>1.010100631338615</v>
+        <v>1.013114293775128</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036555109185241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.036989542180392</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02059270582039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9981456391373263</v>
+        <v>0.9981794140384697</v>
       </c>
       <c r="D24">
-        <v>1.02122797311741</v>
+        <v>1.020819032491118</v>
       </c>
       <c r="E24">
-        <v>1.015617236083801</v>
+        <v>1.015643636725369</v>
       </c>
       <c r="F24">
-        <v>1.026408465854666</v>
+        <v>1.026253848840153</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048712473312433</v>
+        <v>1.048505465422687</v>
       </c>
       <c r="J24">
-        <v>1.025715258496796</v>
+        <v>1.025747726490446</v>
       </c>
       <c r="K24">
-        <v>1.034892282418808</v>
+        <v>1.034490147372477</v>
       </c>
       <c r="L24">
-        <v>1.029375536047679</v>
+        <v>1.029401491290796</v>
       </c>
       <c r="M24">
-        <v>1.039987165283202</v>
+        <v>1.039835087289026</v>
       </c>
       <c r="N24">
-        <v>1.011896572308461</v>
+        <v>1.013770797420255</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040219549527563</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.040099189934792</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021429916493589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007180484026254</v>
+        <v>1.006492391625102</v>
       </c>
       <c r="D25">
-        <v>1.027757561115018</v>
+        <v>1.02658338011751</v>
       </c>
       <c r="E25">
-        <v>1.022690597875049</v>
+        <v>1.022087842205537</v>
       </c>
       <c r="F25">
-        <v>1.033028597207873</v>
+        <v>1.032275496877185</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051253486005267</v>
+        <v>1.050658063199394</v>
       </c>
       <c r="J25">
-        <v>1.031468589298836</v>
+        <v>1.030803219095864</v>
       </c>
       <c r="K25">
-        <v>1.039939733304212</v>
+        <v>1.038782577644963</v>
       </c>
       <c r="L25">
-        <v>1.034946594755242</v>
+        <v>1.034352682966395</v>
       </c>
       <c r="M25">
-        <v>1.045134944237103</v>
+        <v>1.04439261741628</v>
       </c>
       <c r="N25">
-        <v>1.013887361851673</v>
+        <v>1.015102432182594</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04429366153811</v>
+        <v>1.043706162465526</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022411497877549</v>
       </c>
     </row>
   </sheetData>
